--- a/plots/plot-textureless-mask.xlsx
+++ b/plots/plot-textureless-mask.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bjohn/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bjohn/git/thesis/disparity-thesis/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="33520" windowHeight="20540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="mean_results" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/bjohn/Desktop/datasets/cambridge/05-tunnel/eval/mean_results.csv" comma="1" semicolon="1">
+    <textPr fileType="mac" sourceFile="/Users/bjohn/Desktop/datasets/cambridge/05-tunnel/eval/mean_results.csv" comma="1" semicolon="1">
       <textFields count="22">
         <textField/>
         <textField/>
@@ -194,9 +194,8 @@
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -213,15 +212,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$I$2:$I$14</c:f>
@@ -270,6 +271,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -286,15 +288,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$J$2:$J$14</c:f>
@@ -343,6 +347,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -352,18 +357,73 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="-2113056560"/>
-        <c:axId val="-2119580016"/>
-      </c:barChart>
+        <c:smooth val="0"/>
+        <c:axId val="2128367120"/>
+        <c:axId val="2128373136"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="-2113056560"/>
+        <c:axId val="2128367120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Algorithm</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -386,7 +446,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -401,7 +461,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2119580016"/>
+        <c:crossAx val="2128373136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -409,9 +469,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2119580016"/>
+        <c:axId val="2128373136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="23.0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -429,6 +491,63 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>PBMP</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -444,7 +563,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -459,7 +578,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2113056560"/>
+        <c:crossAx val="2128367120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -487,7 +606,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -527,7 +646,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1800" baseline="0"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -1089,14 +1208,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>889000</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1388,7 +1507,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
